--- a/biology/Botanique/Fritillaire/Fritillaire.xlsx
+++ b/biology/Botanique/Fritillaire/Fritillaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritillaria
-Les fritillaires (genre Fritillaria, prononcées [fritilère] et [fritiLaria] -et non pas [friti-yère]-, du latin fritillus, "cornet à dés")[1], couramment appelées goganes dans l'ouest de la France[2], sont des plantes herbacées vivaces appartenant à la famille des Liliaceae sensu stricto. Le genre comprend quelque 120 espèces d'Europe, d'Asie et de l'Ouest américain. On rencontre beaucoup d'espèces endémiques, notamment en Grèce, dans les Balkans et en Asie Mineure.
+Les fritillaires (genre Fritillaria, prononcées [fritilère] et [fritiLaria] -et non pas [friti-yère]-, du latin fritillus, "cornet à dés"), couramment appelées goganes dans l'ouest de la France, sont des plantes herbacées vivaces appartenant à la famille des Liliaceae sensu stricto. Le genre comprend quelque 120 espèces d'Europe, d'Asie et de l'Ouest américain. On rencontre beaucoup d'espèces endémiques, notamment en Grèce, dans les Balkans et en Asie Mineure.
 La plupart des espèces poussent dans les rocailles, les pentes rocheuses, les prairies sèches et les broussailles. Quelques espèces, notamment Fritillaria meleagris, Fritillaria japonica et Fritillaria camschatcensis, poussent en sol frais à franchement humide.
 Fritillaria meleagris, la fritillaire pintade, a une répartition comprenant pratiquement toute l'Europe tempérée. Une autre espèce remarquable, Fritillaria imperialis, la fritillaire impériale, une espèce d'origine asiatique - de la Turquie au Cachemire - est cultivée depuis près de 400 ans. Elle est naturalisée çà et là. Les qualités ornementales de ces deux espèces en font des plantes de jardin très appréciées, les bulbes sont faciles à trouver dans le commerce.
 Cinq espèces sont indigènes en France :
- Fritillaria meleagris L., la fritillaire pintade : largement répandue, sauf dans la région méditerranéenne ; en régression par suite de la destruction de ses habitats, elle a disparu de Haute-Normandie. Des arrêtés de protection ont été pris dans certains départements[3].
+ Fritillaria meleagris L., la fritillaire pintade : largement répandue, sauf dans la région méditerranéenne ; en régression par suite de la destruction de ses habitats, elle a disparu de Haute-Normandie. Des arrêtés de protection ont été pris dans certains départements.
 Fritillaria nigra Mill., (Syn. F. pyrenaica L.), la fritillaire des Pyrénées : Cévennes et Pyrénées
 Fritillaria tubiformis Gren. &amp; Godron (Syn. F. delphinensis Gren.), la fritillaire du Dauphiné : Dauphiné et Alpes méridionales
 Fritillaria involucrata All., la fritillaire à involucre : Alpes méridionales
@@ -520,7 +532,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fritillaires sont géophytes à bulbe écailleux. Les bulbes de beaucoup d'entre elles ne comportent que deux grosses écailles.
 Les fleurs, souvent isolées ou en petit nombre, sont placées au sommet d'une tige de taille variable. Fait entre autres exception la fritillaire de Perse, Fritillaria persica, qui porte une grappe comptant jusqu'à 30 fleurs au sommet d'une tige qui peut atteindre 1,2 m de hauteur.
@@ -555,14 +569,54 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses espèces ont une coloration variable des tépales et une disposition variable des feuilles selon le biotope où elles poussent, ce qui ne facilite pas leur nomenclature. Beaucoup d'espèces ont ainsi été décrites sous différents noms et le nombre des espèces varie d'après les auteurs, certains taxons étant considérés par les uns comme des espèces à part entière et par d'autres comme des sous-espèces ou de simples variétés.
 Certaines espèces asiatiques, notamment Fritillaria stenanthera, Fritillaria gibbosa et Fritillaria sewerzowii, ont été jadis placées dans les genres séparés Rhinopetalum  Fish. ex D.Don et Korolkovia Regel. Ces genres sont actuellement considérés obsolètes par la plupart des auteurs.
 L'analyse de l'ADN des espèces américaines montre qu'elles sont proches à la fois du genre Lilium et des espèces de l'ancien monde. Divers auteurs proposent dès lors de les placer dans un genre séparé, le genre Amblirion Raf.
-Principales espèces
-Flore européenne
-Fritillaria conica Boiss. - Sud de la Grèce
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fritillaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fritillaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Flore européenne</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritillaria conica Boiss. - Sud de la Grèce
 Fritillaria davisii Turill - Sud de la Grèce
 Fritillaria drenovskii Degen &amp; Stoyanoff - Balkans
 Fritillaria ehrhartii Boiss. &amp; Orph. - Grèce
@@ -597,8 +651,47 @@
 			Fritillaria orientalis
 			Fritillaria ruthenica
 			Fritillaria tubiformis
-Flore asiatique
-Fritillaria acmopetala Boiss. - Chypre, Turquie, Liban et Syrie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fritillaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fritillaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Flore asiatique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritillaria acmopetala Boiss. - Chypre, Turquie, Liban et Syrie
 Fritillaria alburyana Rix - Turquie
 Fritillaria alfredae Post - Asie Mineure
 Fritillaria anhuiensis S.C.Chen &amp; S.F.Yin - Chine
@@ -680,8 +773,47 @@
 			Fritillaria sewerzowii
 			Fritillaria thunbergii
 			Fritillaria uva-vulpis
-Flore ouest-américaine
-Fritillaria affinis Pursh - du Sud-ouest du Canada au Nord de la Californie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fritillaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fritillaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Flore ouest-américaine</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritillaria affinis Pursh - du Sud-ouest du Canada au Nord de la Californie
 Fritillaria agrestis Greene - Californie
 Fritillaria atropurpurea Nuttall - Ouest des États-Unis
 Fritillaria biflora Lindl. - Californie
@@ -711,31 +843,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Fritillaire</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fritillaire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Étant donné que les bulbes de nombreuses espèces dessèchent rapidement, ils doivent être plantés aussi tôt que possible après arrachement.
 De nombreuses espèces endémiques ont une répartition restreinte et il ne faut dès lors pas les prélever dans la nature. Ces espèces ne doivent être cultivées qu'à partir de matériel provenant de producteurs fiables.
@@ -746,34 +880,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Fritillaire</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fritillaire</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calendrier républicain
-La fritillaire voit son nom attribué au 22e jour du mois de floréal dans ledit calendrier[4], généralement chaque 11 mai de glace du calendrier grégorien.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fritillaire voit son nom attribué au 22e jour du mois de floréal dans ledit calendrier, généralement chaque 11 mai de glace du calendrier grégorien.
 </t>
         </is>
       </c>
